--- a/output/AICC_output_updated.xlsx
+++ b/output/AICC_output_updated.xlsx
@@ -3315,7 +3315,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
